--- a/KnowledgeGraph/data/open_form.xlsx
+++ b/KnowledgeGraph/data/open_form.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18755" windowHeight="7812"/>
+    <workbookView windowWidth="21191" windowHeight="9120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>名词</t>
   </si>
@@ -28,28 +28,37 @@
     <t>适用人群</t>
   </si>
   <si>
+    <t>别名</t>
+  </si>
+  <si>
     <t>开放式</t>
   </si>
   <si>
-    <t>是指在每个法定工作日里，在规定的交易时间内，可以进行申购或赎回的理财产品。</t>
-  </si>
-  <si>
-    <t>收益一般情况下抵于同类封闭式产品，但是流动性好</t>
-  </si>
-  <si>
-    <t>适合对流动性要求高的投资者</t>
+    <t>指在每个法定工作日里,在规定的交易时间内,可以进行申购或赎回的理财产品。</t>
+  </si>
+  <si>
+    <t>收益一般情况下抵于同类封闭式产品,但是流动性好。</t>
+  </si>
+  <si>
+    <t>适合对流动性要求高的投资者（高流动性）。</t>
+  </si>
+  <si>
+    <t>随时买入,随时卖出</t>
   </si>
   <si>
     <t>封闭式</t>
   </si>
   <si>
-    <t>是指在只有在产品说明书公布的固定日期或者产品到期日之后才可以进行赎回操作或是对提前赎回有限制的理财产品</t>
-  </si>
-  <si>
-    <t>收益高于同类开放式产品，但是流动性差</t>
-  </si>
-  <si>
-    <t>适合对流动性要求不高的投资者。</t>
+    <t>指在只有在产品说明书公布的固定日期或者产品到期日之后才可以进行赎回操作或是对提前赎回有限制的理财产品。</t>
+  </si>
+  <si>
+    <t>收益高于同类开放式产品,但是流动性差。</t>
+  </si>
+  <si>
+    <t>适合对流动性要求不高的投资者（低流动性）。</t>
+  </si>
+  <si>
+    <t>限制买入,限制卖出</t>
   </si>
 </sst>
 </file>
@@ -57,12 +66,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,19 +83,57 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,60 +141,17 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -159,32 +163,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -198,11 +186,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,9 +217,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +233,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,11 +427,52 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -451,44 +494,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -508,17 +516,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -530,10 +532,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -542,141 +544,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1001,15 +1000,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1022,33 +1021,42 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>8</v>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
